--- a/biology/Botanique/Polystachya_albescens/Polystachya_albescens.xlsx
+++ b/biology/Botanique/Polystachya_albescens/Polystachya_albescens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Polystachya albescens Ridl. est une espèce de plantes épiphytes de la famille des Orchidaceae et du genre Polystachya, selon la classification phylogénétique. 
 </t>
@@ -511,9 +523,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle se développe dans les forêts humides et dans les forêts fluviales d'Afrique tropicale. Dans plusieurs localités, son habitat diminue à cause de l'agriculture, de l'exploitation forestière et de l'urbanisation[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle se développe dans les forêts humides et dans les forêts fluviales d'Afrique tropicale. Dans plusieurs localités, son habitat diminue à cause de l'agriculture, de l'exploitation forestière et de l'urbanisation.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La sous-espèce Polystachya albescens Ridl.subsp. manengouba Sanford est endémique du Cameroun. Comme son épithète spécifique manengouba le suggère, on la trouve sur le mont Manengouba dans la région du Littoral.
-La sous-espèce Polystachya albescens Ridl. subsp. principensis Stévart est endémique de Sao Tomé-et-Principe. Comme son épithète principensis le suggère, on la trouve sur l'île de Principe[3].
-Selon Catalogue of Life                                   (10 septembre 2017)[4] :
+La sous-espèce Polystachya albescens Ridl. subsp. principensis Stévart est endémique de Sao Tomé-et-Principe. Comme son épithète principensis le suggère, on la trouve sur l'île de Principe.
+Selon Catalogue of Life                                   (10 septembre 2017) :
 sous-espèce Polystachya albescens subsp. albescens
 sous-espèce Polystachya albescens subsp. angustifolia
 sous-espèce Polystachya albescens subsp. imbricata
@@ -555,7 +571,7 @@
 sous-espèce Polystachya albescens subsp. musozensis
 sous-espèce Polystachya albescens subsp. polyphylla
 sous-espèce Polystachya albescens subsp. principensis
-Selon World Checklist of Selected Plant Families (WCSP)  (10 septembre 2017)[5] :
+Selon World Checklist of Selected Plant Families (WCSP)  (10 septembre 2017) :
 sous-espèce Polystachya albescens subsp. albescens
 sous-espèce Polystachya albescens subsp. angustifolia (Summerh.) Summerh. (1958)
 sous-espèce Polystachya albescens subsp. imbricata (Rolfe) Summerh. (1958)
@@ -564,14 +580,14 @@
 sous-espèce Polystachya albescens subsp. musozensis (Rendle) Summerh. (1958)
 sous-espèce Polystachya albescens subsp. polyphylla (Summerh.) Stévart, Adansonia, sér. 3 (2004)
 sous-espèce Polystachya albescens subsp. principensis Stévart (2000)
-Selon NCBI  (10 septembre 2017)[6] :
+Selon NCBI  (10 septembre 2017) :
 sous-espèce Polystachya albescens subsp. imbricata
-Selon The Plant List            (10 septembre 2017)[1] :
+Selon The Plant List            (10 septembre 2017) :
 sous-espèce Polystachya albescens subsp. imbricata (Rolfe) Summerh.
 sous-espèce Polystachya albescens subsp. kraenzlinii (Rolfe) Summerh.
 sous-espèce Polystachya albescens subsp. musozensis (Rendle) Summerh.
 sous-espèce Polystachya albescens subsp. polyphylla (Summerh.) Stévart
-Selon Tropicos                                           (10 septembre 2017)[7] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (10 septembre 2017) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Polystachya albescens subsp. albescens
 sous-espèce Polystachya albescens subsp. angustifolia (Summerh.) Summerh.
 sous-espèce Polystachya albescens subsp. imbricata (Rolfe) Summerh.
